--- a/spreadsheets/ghga_submission.xlsx
+++ b/spreadsheets/ghga_submission.xlsx
@@ -12,7 +12,9 @@
     <sheet name="Dataset" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="DataAccessPolicy" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="DataAccessCommittee" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="__properties" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="__transpiler_protocol" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="__sheet_meta" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="__column_meta" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20160,7 +20162,7 @@
       </c>
       <c r="E3" s="8" t="inlineStr">
         <is>
-          <t>array</t>
+          <t>string</t>
         </is>
       </c>
     </row>
@@ -27397,7 +27399,7 @@
       </c>
       <c r="H3" s="11" t="inlineStr">
         <is>
-          <t>array</t>
+          <t>string</t>
         </is>
       </c>
     </row>
@@ -42676,8 +42678,1036 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>0.0.0</t>
+          <t>1.0.0</t>
         </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sheet</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>n_cols</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>header_row</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>data_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>StudyFile</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Study</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DataAccessPolicy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DataAccessCommittee</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sheet</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>column</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>multivalued</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ref_class</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ref_class_id_property</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>StudyFile</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>alias</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>StudyFile</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Study</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>alias</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>StudyFile</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dataset</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>alias</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>StudyFile</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>StudyFile</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>StudyFile</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>StudyFile</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>checksum</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>StudyFile</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>checksum_type</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>StudyFile</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>forward_or_reverse</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Study</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>alias</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Study</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Study</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Study</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Study</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>affiliations</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Study</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>attributes</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>object</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>alias</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>data_access_policy</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>DataAccessPolicy</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>alias</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>types</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DataAccessPolicy</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>alias</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DataAccessPolicy</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>data_access_committees</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DataAccessCommittee</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>alias</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DataAccessPolicy</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DataAccessPolicy</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DataAccessPolicy</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>policy_text</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DataAccessPolicy</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>policy_url</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DataAccessPolicy</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>data_use_permission</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DataAccessPolicy</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>data_use_modifiers</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DataAccessCommittee</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>alias</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DataAccessCommittee</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DataAccessCommittee</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>institute</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
